--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_15_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_15_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>489404.7888600577</v>
+        <v>520269.5135451108</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1790467.545064538</v>
+        <v>1781550.115583401</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24007487.45890418</v>
+        <v>24017313.31977735</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4791337.533153617</v>
+        <v>4787890.517968333</v>
       </c>
     </row>
     <row r="11">
@@ -7988,7 +7990,7 @@
         <v>94.50134181136147</v>
       </c>
       <c r="N2" t="n">
-        <v>89.2146190330682</v>
+        <v>89.21461903306817</v>
       </c>
       <c r="O2" t="n">
         <v>99.00804712831379</v>
@@ -8222,13 +8224,13 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>87.70217318086767</v>
+        <v>90.31173819920292</v>
       </c>
       <c r="N5" t="n">
-        <v>82.30543274582104</v>
+        <v>84.95722325436918</v>
       </c>
       <c r="O5" t="n">
-        <v>97.41850398649893</v>
+        <v>99.00804712831379</v>
       </c>
       <c r="P5" t="n">
         <v>83.66766412458549</v>
@@ -8298,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>37.77581921773398</v>
+        <v>39.50233892697406</v>
       </c>
       <c r="M6" t="n">
-        <v>15.48722582050885</v>
+        <v>17.50199288651834</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>27.89539017292432</v>
+        <v>29.7872902773006</v>
       </c>
       <c r="P6" t="n">
-        <v>50.94872141056362</v>
+        <v>52.46713803718507</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -8456,16 +8458,16 @@
         <v>84.27780726850284</v>
       </c>
       <c r="L8" t="n">
-        <v>102.8381142892153</v>
+        <v>108.5919157831171</v>
       </c>
       <c r="M8" t="n">
-        <v>67.64282070579191</v>
+        <v>74.04503350661616</v>
       </c>
       <c r="N8" t="n">
-        <v>61.92149897629116</v>
+        <v>68.42730627354024</v>
       </c>
       <c r="O8" t="n">
-        <v>78.17053334824146</v>
+        <v>84.31378269605855</v>
       </c>
       <c r="P8" t="n">
         <v>83.66766412458549</v>
@@ -8535,19 +8537,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L9" t="n">
-        <v>24.50430953720272</v>
+        <v>28.74009079028824</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>4.94295693345623</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.35262508576585</v>
+        <v>17.99414464209616</v>
       </c>
       <c r="P9" t="n">
-        <v>39.27687031530112</v>
+        <v>43.00209896284861</v>
       </c>
       <c r="Q9" t="n">
         <v>54.62009481132077</v>
@@ -8690,7 +8692,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>82.69308435253603</v>
+        <v>82.693084352536</v>
       </c>
       <c r="L11" t="n">
         <v>48.07411698098349</v>
@@ -22574,7 +22576,7 @@
         <v>62.01598937483024</v>
       </c>
       <c r="L2" t="n">
-        <v>18.38450875428637</v>
+        <v>18.3845087542864</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -22586,7 +22588,7 @@
         <v>4.934605547775959</v>
       </c>
       <c r="P2" t="n">
-        <v>56.01237276874352</v>
+        <v>56.01237276874355</v>
       </c>
       <c r="Q2" t="n">
         <v>120.8562777625268</v>
@@ -22650,7 +22652,7 @@
         <v>82.93859734111298</v>
       </c>
       <c r="K3" t="n">
-        <v>13.57083277636241</v>
+        <v>13.57083277636242</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -22668,7 +22670,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.82666100818672</v>
+        <v>55.8266610081867</v>
       </c>
       <c r="R3" t="n">
         <v>155.3651088272201</v>
@@ -22735,7 +22737,7 @@
         <v>62.96960703121101</v>
       </c>
       <c r="M4" t="n">
-        <v>59.70650310975206</v>
+        <v>59.70650310975205</v>
       </c>
       <c r="N4" t="n">
         <v>47.31542685419204</v>
@@ -22796,22 +22798,22 @@
         <v>399.146417573369</v>
       </c>
       <c r="G5" t="n">
-        <v>422.1711349573947</v>
+        <v>422.1859965465589</v>
       </c>
       <c r="H5" t="n">
-        <v>349.5632077616288</v>
+        <v>349.7154090116571</v>
       </c>
       <c r="I5" t="n">
-        <v>252.9208142658397</v>
+        <v>253.493765682094</v>
       </c>
       <c r="J5" t="n">
-        <v>100.3713126771896</v>
+        <v>101.632671480518</v>
       </c>
       <c r="K5" t="n">
-        <v>57.09046064443405</v>
+        <v>58.98091051708468</v>
       </c>
       <c r="L5" t="n">
-        <v>12.27395481918626</v>
+        <v>14.61922505122197</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22820,25 +22822,25 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.9144674394813705</v>
       </c>
       <c r="P5" t="n">
-        <v>50.44416280369231</v>
+        <v>52.5812779024964</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.6747839725672</v>
+        <v>118.279668409427</v>
       </c>
       <c r="R5" t="n">
-        <v>209.0658801893956</v>
+        <v>209.9994294897338</v>
       </c>
       <c r="S5" t="n">
-        <v>235.0523137644422</v>
+        <v>235.3909722275223</v>
       </c>
       <c r="T5" t="n">
-        <v>219.3023467014476</v>
+        <v>219.367403308014</v>
       </c>
       <c r="U5" t="n">
-        <v>248.7880786073906</v>
+        <v>248.7892675345237</v>
       </c>
       <c r="V5" t="n">
         <v>313.3044420010231</v>
@@ -22875,19 +22877,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G6" t="n">
-        <v>161.0099176112525</v>
+        <v>161.0178692624737</v>
       </c>
       <c r="H6" t="n">
-        <v>137.701595766634</v>
+        <v>137.7783919771127</v>
       </c>
       <c r="I6" t="n">
-        <v>116.7769685840635</v>
+        <v>117.0507425405837</v>
       </c>
       <c r="J6" t="n">
-        <v>80.98121337311861</v>
+        <v>81.7324700352081</v>
       </c>
       <c r="K6" t="n">
-        <v>10.2253518075286</v>
+        <v>11.50936910144016</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22905,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.18204362716871</v>
+        <v>54.19706493042543</v>
       </c>
       <c r="R6" t="n">
-        <v>154.0787837981626</v>
+        <v>154.5724836871435</v>
       </c>
       <c r="S6" t="n">
-        <v>207.928718272017</v>
+        <v>208.0764167058849</v>
       </c>
       <c r="T6" t="n">
-        <v>230.0749449585587</v>
+        <v>230.1069956930864</v>
       </c>
       <c r="U6" t="n">
-        <v>249.6492223174919</v>
+        <v>249.6497454524407</v>
       </c>
       <c r="V6" t="n">
         <v>249.2999251801724</v>
@@ -22954,49 +22956,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G7" t="n">
-        <v>169.2301488804216</v>
+        <v>169.2368152776922</v>
       </c>
       <c r="H7" t="n">
-        <v>167.5399932967506</v>
+        <v>167.5992636288474</v>
       </c>
       <c r="I7" t="n">
-        <v>167.6082484609042</v>
+        <v>167.8087252079146</v>
       </c>
       <c r="J7" t="n">
-        <v>131.9810555526804</v>
+        <v>132.4523698397117</v>
       </c>
       <c r="K7" t="n">
-        <v>86.97257914960325</v>
+        <v>87.74709330522369</v>
       </c>
       <c r="L7" t="n">
-        <v>60.38728625235809</v>
+        <v>61.37839771566142</v>
       </c>
       <c r="M7" t="n">
-        <v>56.98380791654179</v>
+        <v>58.02879599051386</v>
       </c>
       <c r="N7" t="n">
-        <v>44.65747126715333</v>
+        <v>45.67761186038953</v>
       </c>
       <c r="O7" t="n">
-        <v>70.12792420831707</v>
+        <v>71.07018916071037</v>
       </c>
       <c r="P7" t="n">
-        <v>89.33725884936734</v>
+        <v>90.14352929744044</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.2842285170384</v>
+        <v>151.8424483830337</v>
       </c>
       <c r="R7" t="n">
-        <v>220.8631442466561</v>
+        <v>221.1628897093868</v>
       </c>
       <c r="S7" t="n">
-        <v>243.6182431833629</v>
+        <v>243.7344203067059</v>
       </c>
       <c r="T7" t="n">
-        <v>218.0685539250803</v>
+        <v>218.0970376225092</v>
       </c>
       <c r="U7" t="n">
-        <v>291.2193491222004</v>
+        <v>291.2197127438696</v>
       </c>
       <c r="V7" t="n">
         <v>237.3615500762718</v>
@@ -23033,19 +23035,19 @@
         <v>399.146417573369</v>
       </c>
       <c r="G8" t="n">
-        <v>422.0568960504157</v>
+        <v>422.0933569378507</v>
       </c>
       <c r="H8" t="n">
-        <v>348.3932585555301</v>
+        <v>348.766663618974</v>
       </c>
       <c r="I8" t="n">
-        <v>248.5166188045319</v>
+        <v>249.9222771673705</v>
       </c>
       <c r="J8" t="n">
-        <v>90.67542824598098</v>
+        <v>93.77000049091893</v>
       </c>
       <c r="K8" t="n">
-        <v>42.5588432808045</v>
+        <v>47.19680489086682</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -23060,22 +23062,22 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>34.01646518147888</v>
+        <v>39.2595863707439</v>
       </c>
       <c r="Q8" t="n">
-        <v>104.3382672065391</v>
+        <v>108.2756328645375</v>
       </c>
       <c r="R8" t="n">
-        <v>201.8898204488763</v>
+        <v>204.1801566692163</v>
       </c>
       <c r="S8" t="n">
-        <v>232.4490946716583</v>
+        <v>233.2799471440838</v>
       </c>
       <c r="T8" t="n">
-        <v>218.802265886147</v>
+        <v>218.9618734208938</v>
       </c>
       <c r="U8" t="n">
-        <v>248.7789394948323</v>
+        <v>248.7818563658271</v>
       </c>
       <c r="V8" t="n">
         <v>313.3044420010231</v>
@@ -23112,19 +23114,19 @@
         <v>173.9843481253239</v>
       </c>
       <c r="G9" t="n">
-        <v>160.948794407391</v>
+        <v>160.968302702022</v>
       </c>
       <c r="H9" t="n">
-        <v>137.1112742977616</v>
+        <v>137.2996833538022</v>
       </c>
       <c r="I9" t="n">
-        <v>114.6725073984828</v>
+        <v>115.3441745601174</v>
       </c>
       <c r="J9" t="n">
-        <v>75.2064110293488</v>
+        <v>77.04951705849162</v>
       </c>
       <c r="K9" t="n">
-        <v>0.3552948050415807</v>
+        <v>3.505456574455792</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -23142,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.37972027109998</v>
+        <v>47.86993696819728</v>
       </c>
       <c r="R9" t="n">
-        <v>150.2837834742034</v>
+        <v>151.4950089952352</v>
       </c>
       <c r="S9" t="n">
-        <v>206.7933815687133</v>
+        <v>207.155739585213</v>
       </c>
       <c r="T9" t="n">
-        <v>229.8285755535207</v>
+        <v>229.9072076709146</v>
       </c>
       <c r="U9" t="n">
-        <v>249.64520105408</v>
+        <v>249.6464844945162</v>
       </c>
       <c r="V9" t="n">
         <v>249.2999251801724</v>
@@ -23191,49 +23193,49 @@
         <v>131.7685403657761</v>
       </c>
       <c r="G10" t="n">
-        <v>169.1789052395657</v>
+        <v>169.1952603384582</v>
       </c>
       <c r="H10" t="n">
-        <v>167.0843907444132</v>
+        <v>167.229802441839</v>
       </c>
       <c r="I10" t="n">
-        <v>166.0672124249817</v>
+        <v>166.5590548534935</v>
       </c>
       <c r="J10" t="n">
-        <v>128.3581301441649</v>
+        <v>129.5144356358626</v>
       </c>
       <c r="K10" t="n">
-        <v>81.01899978470318</v>
+        <v>82.91916491057385</v>
       </c>
       <c r="L10" t="n">
-        <v>52.76875441092022</v>
+        <v>55.200311568079</v>
       </c>
       <c r="M10" t="n">
-        <v>48.95113428673177</v>
+        <v>51.51487037948513</v>
       </c>
       <c r="N10" t="n">
-        <v>36.81579666235183</v>
+        <v>39.31857284105145</v>
       </c>
       <c r="O10" t="n">
-        <v>62.88486849896913</v>
+        <v>65.19658738606127</v>
       </c>
       <c r="P10" t="n">
-        <v>83.13957341348075</v>
+        <v>85.11764828316647</v>
       </c>
       <c r="Q10" t="n">
-        <v>146.9932723722735</v>
+        <v>148.3627888804421</v>
       </c>
       <c r="R10" t="n">
-        <v>218.5590438132605</v>
+        <v>219.2944285325528</v>
       </c>
       <c r="S10" t="n">
-        <v>242.7252062786279</v>
+        <v>243.0102310475085</v>
       </c>
       <c r="T10" t="n">
-        <v>217.8496038232412</v>
+        <v>217.9194847003273</v>
       </c>
       <c r="U10" t="n">
-        <v>291.2165540145173</v>
+        <v>291.2174461108205</v>
       </c>
       <c r="V10" t="n">
         <v>237.3615500762718</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.86288983651983</v>
+        <v>66.8628898365198</v>
       </c>
       <c r="R11" t="n">
         <v>180.0906730958467</v>
@@ -23440,10 +23442,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K13" t="n">
-        <v>62.93345443721985</v>
+        <v>62.93345443721984</v>
       </c>
       <c r="L13" t="n">
-        <v>29.62548300147246</v>
+        <v>29.62548300147245</v>
       </c>
       <c r="M13" t="n">
         <v>24.54979951156312</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>393055.7128103304</v>
+        <v>391687.7877788551</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>401891.8134867268</v>
+        <v>399586.1638950583</v>
       </c>
     </row>
     <row r="5">
@@ -26314,10 +26316,10 @@
         <v>134677.8492186443</v>
       </c>
       <c r="C2" t="n">
-        <v>136411.018216343</v>
+        <v>135782.850330123</v>
       </c>
       <c r="D2" t="n">
-        <v>140756.3226722937</v>
+        <v>139517.5769926123</v>
       </c>
       <c r="E2" t="n">
         <v>151289.2537636241</v>
@@ -26347,7 +26349,7 @@
         <v>151289.2537636241</v>
       </c>
       <c r="N2" t="n">
-        <v>151289.2537636242</v>
+        <v>151289.2537636241</v>
       </c>
       <c r="O2" t="n">
         <v>151289.2537636241</v>
@@ -26366,13 +26368,13 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>8770.90952780766</v>
+        <v>5404.577564794114</v>
       </c>
       <c r="D3" t="n">
-        <v>24336.65507127579</v>
+        <v>19735.29214074451</v>
       </c>
       <c r="E3" t="n">
-        <v>69352.80631588837</v>
+        <v>76639.38691994261</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27652.73445179191</v>
+        <v>27652.7344517919</v>
       </c>
       <c r="C4" t="n">
-        <v>26899.8218085676</v>
+        <v>27218.03162957758</v>
       </c>
       <c r="D4" t="n">
-        <v>24072.21052425414</v>
+        <v>25091.61512541461</v>
       </c>
       <c r="E4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="F4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="G4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="H4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="I4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="J4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="K4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="L4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="M4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="N4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="O4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
       <c r="P4" t="n">
-        <v>14866.58537293002</v>
+        <v>14866.58537293001</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26472,10 @@
         <v>41112.97456555201</v>
       </c>
       <c r="C5" t="n">
-        <v>41322.95195161772</v>
+        <v>41242.36126897734</v>
       </c>
       <c r="D5" t="n">
-        <v>41942.44098443807</v>
+        <v>41744.72270709982</v>
       </c>
       <c r="E5" t="n">
         <v>10196.69999876384</v>
@@ -26522,46 +26524,46 @@
         <v>-264959.6139838037</v>
       </c>
       <c r="C6" t="n">
-        <v>59417.33492835004</v>
+        <v>61917.879866774</v>
       </c>
       <c r="D6" t="n">
-        <v>50405.01609232572</v>
+        <v>52945.94701935336</v>
       </c>
       <c r="E6" t="n">
-        <v>56873.16207604186</v>
+        <v>49586.58147198762</v>
       </c>
       <c r="F6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="G6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="H6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="I6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="J6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="K6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="L6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="M6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="N6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="O6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
       <c r="P6" t="n">
-        <v>126225.9683919303</v>
+        <v>126225.9683919302</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>352.9977959457669</v>
+        <v>349.3009756411624</v>
       </c>
       <c r="D3" t="n">
-        <v>381.4147240567924</v>
+        <v>372.3450783073314</v>
       </c>
       <c r="E3" t="n">
         <v>467.7385320533874</v>
@@ -26960,13 +26962,13 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>9.631990186500426</v>
+        <v>5.935169881895838</v>
       </c>
       <c r="D3" t="n">
-        <v>28.41692811102549</v>
+        <v>23.04410266616906</v>
       </c>
       <c r="E3" t="n">
-        <v>86.32380799659495</v>
+        <v>95.39345374605597</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31054,13 +31056,13 @@
         <v>175.587610509951</v>
       </c>
       <c r="L2" t="n">
-        <v>217.8319573562029</v>
+        <v>217.8319573562028</v>
       </c>
       <c r="M2" t="n">
         <v>242.3800242835249</v>
       </c>
       <c r="N2" t="n">
-        <v>246.301986476946</v>
+        <v>246.3019864769461</v>
       </c>
       <c r="O2" t="n">
         <v>232.5759815281271</v>
@@ -31078,7 +31080,7 @@
         <v>31.45506853764538</v>
       </c>
       <c r="T2" t="n">
-        <v>6.04254799883895</v>
+        <v>6.042547998838951</v>
       </c>
       <c r="U2" t="n">
         <v>0.1104292038622766</v>
@@ -31121,7 +31123,7 @@
         <v>0.7385604123878564</v>
       </c>
       <c r="H3" t="n">
-        <v>7.132938719640613</v>
+        <v>7.132938719640614</v>
       </c>
       <c r="I3" t="n">
         <v>25.42850542651172</v>
@@ -31130,7 +31132,7 @@
         <v>69.77776247038078</v>
       </c>
       <c r="K3" t="n">
-        <v>119.2613101003672</v>
+        <v>119.2613101003671</v>
       </c>
       <c r="L3" t="n">
         <v>160.3615491897405</v>
@@ -31148,10 +31150,10 @@
         <v>141.0326457655372</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.276588781299</v>
+        <v>94.27658878129901</v>
       </c>
       <c r="R3" t="n">
-        <v>45.85553156913376</v>
+        <v>45.85553156913377</v>
       </c>
       <c r="S3" t="n">
         <v>13.71843573009899</v>
@@ -31215,7 +31217,7 @@
         <v>92.05580962929582</v>
       </c>
       <c r="M4" t="n">
-        <v>97.05994407716445</v>
+        <v>97.05994407716446</v>
       </c>
       <c r="N4" t="n">
         <v>94.75207554665143</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.419086616867404</v>
+        <v>1.404225027703164</v>
       </c>
       <c r="H5" t="n">
-        <v>14.5332208149933</v>
+        <v>14.38101956496503</v>
       </c>
       <c r="I5" t="n">
-        <v>54.70933679678063</v>
+        <v>54.13638538052629</v>
       </c>
       <c r="J5" t="n">
-        <v>120.4432027483499</v>
+        <v>119.1818439450216</v>
       </c>
       <c r="K5" t="n">
-        <v>180.5131392403472</v>
+        <v>178.6226893676965</v>
       </c>
       <c r="L5" t="n">
-        <v>223.942511291303</v>
+        <v>221.5972410592673</v>
       </c>
       <c r="M5" t="n">
-        <v>249.1791929140187</v>
+        <v>246.5696278956834</v>
       </c>
       <c r="N5" t="n">
-        <v>253.2111727641932</v>
+        <v>250.5593822556451</v>
       </c>
       <c r="O5" t="n">
-        <v>239.1001302177179</v>
+        <v>236.5961196364217</v>
       </c>
       <c r="P5" t="n">
-        <v>204.0664293638039</v>
+        <v>201.9293142649998</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.24538989724</v>
+        <v>151.6405054603802</v>
       </c>
       <c r="R5" t="n">
-        <v>89.14169969679713</v>
+        <v>88.20815039645898</v>
       </c>
       <c r="S5" t="n">
-        <v>32.337436281866</v>
+        <v>31.99877781878589</v>
       </c>
       <c r="T5" t="n">
-        <v>6.212051665337063</v>
+        <v>6.146995058770605</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1135269293493923</v>
+        <v>0.1123380022162531</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7592782780720271</v>
+        <v>0.7513266268508021</v>
       </c>
       <c r="H6" t="n">
-        <v>7.333029685590367</v>
+        <v>7.256233475111696</v>
       </c>
       <c r="I6" t="n">
-        <v>26.14181790730444</v>
+        <v>25.8680439507842</v>
       </c>
       <c r="J6" t="n">
-        <v>71.73514643837515</v>
+        <v>70.98388977628566</v>
       </c>
       <c r="K6" t="n">
-        <v>122.606791069201</v>
+        <v>121.3227737752894</v>
       </c>
       <c r="L6" t="n">
-        <v>164.859961210332</v>
+        <v>163.1334415010919</v>
       </c>
       <c r="M6" t="n">
-        <v>192.383798790443</v>
+        <v>190.3690317244335</v>
       </c>
       <c r="N6" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O6" t="n">
-        <v>180.6516173270757</v>
+        <v>178.7597172226994</v>
       </c>
       <c r="P6" t="n">
-        <v>144.9888494328944</v>
+        <v>143.4704328062729</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.92120616231701</v>
+        <v>95.90618485906029</v>
       </c>
       <c r="R6" t="n">
-        <v>47.14185659819131</v>
+        <v>46.64815670921035</v>
       </c>
       <c r="S6" t="n">
-        <v>14.10326099839926</v>
+        <v>13.95556256453134</v>
       </c>
       <c r="T6" t="n">
-        <v>3.060424287492073</v>
+        <v>3.028373552964416</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04995251829421232</v>
+        <v>0.04942938334544753</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6365534025251535</v>
+        <v>0.629887005254555</v>
       </c>
       <c r="H7" t="n">
-        <v>5.659538433360004</v>
+        <v>5.60026810126323</v>
       </c>
       <c r="I7" t="n">
-        <v>19.14289686866553</v>
+        <v>18.94242012165517</v>
       </c>
       <c r="J7" t="n">
-        <v>45.00432555852834</v>
+        <v>44.53301127149704</v>
       </c>
       <c r="K7" t="n">
-        <v>73.95593167519509</v>
+        <v>73.18141751957465</v>
       </c>
       <c r="L7" t="n">
-        <v>94.63813040814874</v>
+        <v>93.64701894484541</v>
       </c>
       <c r="M7" t="n">
-        <v>99.78263927037472</v>
+        <v>98.73765119640265</v>
       </c>
       <c r="N7" t="n">
-        <v>97.41003113369014</v>
+        <v>96.38989054045393</v>
       </c>
       <c r="O7" t="n">
-        <v>89.97393002237354</v>
+        <v>89.03166506998024</v>
       </c>
       <c r="P7" t="n">
-        <v>76.98824061086034</v>
+        <v>76.18197016278725</v>
       </c>
       <c r="Q7" t="n">
-        <v>53.3026671878108</v>
+        <v>52.74444732181552</v>
       </c>
       <c r="R7" t="n">
-        <v>28.62175571717644</v>
+        <v>28.32201025444571</v>
       </c>
       <c r="S7" t="n">
-        <v>11.09338975127926</v>
+        <v>10.9772126279362</v>
       </c>
       <c r="T7" t="n">
-        <v>2.719819083516564</v>
+        <v>2.691335386087644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03472109468319023</v>
+        <v>0.03435747301388486</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.5333255238464</v>
+        <v>1.496864636411381</v>
       </c>
       <c r="H8" t="n">
-        <v>15.70317002109195</v>
+        <v>15.32976495764806</v>
       </c>
       <c r="I8" t="n">
-        <v>59.11353225808841</v>
+        <v>57.70787389524983</v>
       </c>
       <c r="J8" t="n">
-        <v>130.1390871795585</v>
+        <v>127.0445149346206</v>
       </c>
       <c r="K8" t="n">
-        <v>195.0447566039767</v>
+        <v>190.4067949939144</v>
       </c>
       <c r="L8" t="n">
-        <v>241.970267604391</v>
+        <v>236.2164661104893</v>
       </c>
       <c r="M8" t="n">
-        <v>269.2385453890944</v>
+        <v>262.8363325882702</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5951065337231</v>
+        <v>267.089299236474</v>
       </c>
       <c r="O8" t="n">
-        <v>258.3481008559754</v>
+        <v>252.2048515081583</v>
       </c>
       <c r="P8" t="n">
-        <v>220.4941269860173</v>
+        <v>215.2510057967523</v>
       </c>
       <c r="Q8" t="n">
-        <v>165.5819066632681</v>
+        <v>161.6445410052697</v>
       </c>
       <c r="R8" t="n">
-        <v>96.31775943731652</v>
+        <v>94.02742321697652</v>
       </c>
       <c r="S8" t="n">
-        <v>34.94065537464989</v>
+        <v>34.10980290222439</v>
       </c>
       <c r="T8" t="n">
-        <v>6.712132480637621</v>
+        <v>6.552524945890825</v>
       </c>
       <c r="U8" t="n">
-        <v>0.122666041907712</v>
+        <v>0.1197491709129105</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8204014819334779</v>
+        <v>0.8008931873025619</v>
       </c>
       <c r="H9" t="n">
-        <v>7.923351154462802</v>
+        <v>7.734942098422112</v>
       </c>
       <c r="I9" t="n">
-        <v>28.2462790928851</v>
+        <v>27.57461193125049</v>
       </c>
       <c r="J9" t="n">
-        <v>77.50994878214496</v>
+        <v>75.66684275300214</v>
       </c>
       <c r="K9" t="n">
-        <v>132.476848071688</v>
+        <v>129.3266863022738</v>
       </c>
       <c r="L9" t="n">
-        <v>178.1314708908633</v>
+        <v>173.8956896377778</v>
       </c>
       <c r="M9" t="n">
-        <v>207.8710246109518</v>
+        <v>202.9280676774956</v>
       </c>
       <c r="N9" t="n">
         <v>192.087253921875</v>
       </c>
       <c r="O9" t="n">
-        <v>195.1943824142341</v>
+        <v>190.5528628579038</v>
       </c>
       <c r="P9" t="n">
-        <v>156.6607005281569</v>
+        <v>152.9354718806094</v>
       </c>
       <c r="Q9" t="n">
-        <v>104.7235295183857</v>
+        <v>102.2333128212884</v>
       </c>
       <c r="R9" t="n">
-        <v>50.93685692215052</v>
+        <v>49.72563140111873</v>
       </c>
       <c r="S9" t="n">
-        <v>15.23859770170297</v>
+        <v>14.87623968520328</v>
       </c>
       <c r="T9" t="n">
-        <v>3.306793692530114</v>
+        <v>3.228161575136202</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05397378170614989</v>
+        <v>0.05269034126990541</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6877970433811009</v>
+        <v>0.6714419444886303</v>
       </c>
       <c r="H10" t="n">
-        <v>6.115140985697429</v>
+        <v>5.969729288271645</v>
       </c>
       <c r="I10" t="n">
-        <v>20.68393290458802</v>
+        <v>20.19209047607627</v>
       </c>
       <c r="J10" t="n">
-        <v>48.62725096704384</v>
+        <v>47.47094547534616</v>
       </c>
       <c r="K10" t="n">
-        <v>79.90951104009515</v>
+        <v>78.00934591422448</v>
       </c>
       <c r="L10" t="n">
-        <v>102.2566622495866</v>
+        <v>99.82510509242783</v>
       </c>
       <c r="M10" t="n">
-        <v>107.8153129001847</v>
+        <v>105.2515768074314</v>
       </c>
       <c r="N10" t="n">
-        <v>105.2517057384916</v>
+        <v>102.748929559792</v>
       </c>
       <c r="O10" t="n">
-        <v>97.21698573172148</v>
+        <v>94.90526684462934</v>
       </c>
       <c r="P10" t="n">
-        <v>83.18592604674694</v>
+        <v>81.20785117706122</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.59362333257565</v>
+        <v>56.22410682440704</v>
       </c>
       <c r="R10" t="n">
-        <v>30.92585615057204</v>
+        <v>30.19047143127968</v>
       </c>
       <c r="S10" t="n">
-        <v>11.98642665601427</v>
+        <v>11.70140188713367</v>
       </c>
       <c r="T10" t="n">
-        <v>2.938769185355612</v>
+        <v>2.868888308269602</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03751620236624191</v>
+        <v>0.03662410606301624</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31780,7 +31782,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.0572840332873</v>
+        <v>203.0572840332874</v>
       </c>
       <c r="R11" t="n">
         <v>118.1169067903461</v>
@@ -31789,7 +31791,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T11" t="n">
-        <v>8.23125798618574</v>
+        <v>8.231257986185739</v>
       </c>
       <c r="U11" t="n">
         <v>0.1504284726201847</v>
@@ -31871,7 +31873,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06618941491321521</v>
+        <v>0.06618941491321523</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,7 +31913,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H13" t="n">
-        <v>7.499152202429724</v>
+        <v>7.499152202429723</v>
       </c>
       <c r="I13" t="n">
         <v>25.36523055791157</v>
@@ -31920,7 +31922,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K13" t="n">
-        <v>97.99505638757849</v>
+        <v>97.9950563875785</v>
       </c>
       <c r="L13" t="n">
         <v>125.3999336590344</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_15_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/10/Output_15_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>520269.5135451108</v>
+        <v>384843.8038487748</v>
       </c>
     </row>
     <row r="7">
@@ -8224,10 +8224,10 @@
         <v>108.5919157831171</v>
       </c>
       <c r="M5" t="n">
-        <v>90.31173819920292</v>
+        <v>90.31173819920295</v>
       </c>
       <c r="N5" t="n">
-        <v>84.95722325436918</v>
+        <v>84.95722325436921</v>
       </c>
       <c r="O5" t="n">
         <v>99.00804712831379</v>
@@ -8300,19 +8300,19 @@
         <v>68.76096162327045</v>
       </c>
       <c r="L6" t="n">
-        <v>39.50233892697406</v>
+        <v>39.50233892697409</v>
       </c>
       <c r="M6" t="n">
-        <v>17.50199288651834</v>
+        <v>17.50199288651837</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>29.7872902773006</v>
+        <v>29.78729027730063</v>
       </c>
       <c r="P6" t="n">
-        <v>52.46713803718507</v>
+        <v>52.46713803718509</v>
       </c>
       <c r="Q6" t="n">
         <v>54.62009481132077</v>
@@ -9640,7 +9640,7 @@
         <v>43.96511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>82.693084352536</v>
+        <v>82.69308435253603</v>
       </c>
       <c r="L23" t="n">
         <v>48.07411698098349</v>
@@ -22810,10 +22810,10 @@
         <v>101.632671480518</v>
       </c>
       <c r="K5" t="n">
-        <v>58.98091051708468</v>
+        <v>58.98091051708471</v>
       </c>
       <c r="L5" t="n">
-        <v>14.61922505122197</v>
+        <v>14.619225051222</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -22822,10 +22822,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.9144674394813705</v>
+        <v>0.9144674394814274</v>
       </c>
       <c r="P5" t="n">
-        <v>52.5812779024964</v>
+        <v>52.58127790249645</v>
       </c>
       <c r="Q5" t="n">
         <v>118.279668409427</v>
@@ -22886,10 +22886,10 @@
         <v>117.0507425405837</v>
       </c>
       <c r="J6" t="n">
-        <v>81.7324700352081</v>
+        <v>81.73247003520811</v>
       </c>
       <c r="K6" t="n">
-        <v>11.50936910144016</v>
+        <v>11.50936910144019</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -22907,10 +22907,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.19706493042543</v>
+        <v>54.19706493042544</v>
       </c>
       <c r="R6" t="n">
-        <v>154.5724836871435</v>
+        <v>154.5724836871436</v>
       </c>
       <c r="S6" t="n">
         <v>208.0764167058849</v>
@@ -22968,22 +22968,22 @@
         <v>132.4523698397117</v>
       </c>
       <c r="K7" t="n">
-        <v>87.74709330522369</v>
+        <v>87.7470933052237</v>
       </c>
       <c r="L7" t="n">
-        <v>61.37839771566142</v>
+        <v>61.37839771566144</v>
       </c>
       <c r="M7" t="n">
-        <v>58.02879599051386</v>
+        <v>58.02879599051387</v>
       </c>
       <c r="N7" t="n">
-        <v>45.67761186038953</v>
+        <v>45.67761186038955</v>
       </c>
       <c r="O7" t="n">
-        <v>71.07018916071037</v>
+        <v>71.07018916071038</v>
       </c>
       <c r="P7" t="n">
-        <v>90.14352929744044</v>
+        <v>90.14352929744045</v>
       </c>
       <c r="Q7" t="n">
         <v>151.8424483830337</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>66.8628898365198</v>
+        <v>66.86288983651983</v>
       </c>
       <c r="R23" t="n">
         <v>180.0906730958467</v>
@@ -24390,10 +24390,10 @@
         <v>117.3525521967958</v>
       </c>
       <c r="K25" t="n">
-        <v>62.93345443721984</v>
+        <v>62.93345443721985</v>
       </c>
       <c r="L25" t="n">
-        <v>29.62548300147245</v>
+        <v>29.62548300147246</v>
       </c>
       <c r="M25" t="n">
         <v>24.54979951156312</v>
@@ -26368,10 +26368,10 @@
         <v>330871.7541851042</v>
       </c>
       <c r="C3" t="n">
-        <v>5404.577564794114</v>
+        <v>5404.577564794127</v>
       </c>
       <c r="D3" t="n">
-        <v>19735.29214074451</v>
+        <v>19735.2921407445</v>
       </c>
       <c r="E3" t="n">
         <v>76639.38691994261</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27652.7344517919</v>
+        <v>27652.73445179191</v>
       </c>
       <c r="C4" t="n">
         <v>27218.03162957758</v>
@@ -26426,40 +26426,40 @@
         <v>25091.61512541461</v>
       </c>
       <c r="E4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="F4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="G4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="H4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="I4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="J4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="K4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="L4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="M4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="N4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="O4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
       <c r="P4" t="n">
-        <v>14866.58537293001</v>
+        <v>14866.58537293002</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264959.6139838037</v>
+        <v>-281691.4424546208</v>
       </c>
       <c r="C6" t="n">
-        <v>61917.879866774</v>
+        <v>45244.20934919255</v>
       </c>
       <c r="D6" t="n">
-        <v>52945.94701935336</v>
+        <v>36468.84106295559</v>
       </c>
       <c r="E6" t="n">
-        <v>49586.58147198762</v>
+        <v>33729.0374509063</v>
       </c>
       <c r="F6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="G6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="H6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="I6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="J6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="K6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="L6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="M6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="N6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="O6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
       <c r="P6" t="n">
-        <v>126225.9683919302</v>
+        <v>110368.4243708489</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>349.3009756411624</v>
+        <v>349.3009756411623</v>
       </c>
       <c r="D3" t="n">
         <v>372.3450783073314</v>
@@ -26962,10 +26962,10 @@
         <v>343.3658057592666</v>
       </c>
       <c r="C3" t="n">
-        <v>5.935169881895838</v>
+        <v>5.935169881895853</v>
       </c>
       <c r="D3" t="n">
-        <v>23.04410266616906</v>
+        <v>23.04410266616904</v>
       </c>
       <c r="E3" t="n">
         <v>95.39345374605597</v>
@@ -31284,22 +31284,22 @@
         <v>14.38101956496503</v>
       </c>
       <c r="I5" t="n">
-        <v>54.13638538052629</v>
+        <v>54.13638538052628</v>
       </c>
       <c r="J5" t="n">
-        <v>119.1818439450216</v>
+        <v>119.1818439450215</v>
       </c>
       <c r="K5" t="n">
         <v>178.6226893676965</v>
       </c>
       <c r="L5" t="n">
-        <v>221.5972410592673</v>
+        <v>221.5972410592672</v>
       </c>
       <c r="M5" t="n">
         <v>246.5696278956834</v>
       </c>
       <c r="N5" t="n">
-        <v>250.5593822556451</v>
+        <v>250.559382255645</v>
       </c>
       <c r="O5" t="n">
         <v>236.5961196364217</v>
@@ -31311,13 +31311,13 @@
         <v>151.6405054603802</v>
       </c>
       <c r="R5" t="n">
-        <v>88.20815039645898</v>
+        <v>88.20815039645896</v>
       </c>
       <c r="S5" t="n">
-        <v>31.99877781878589</v>
+        <v>31.99877781878588</v>
       </c>
       <c r="T5" t="n">
-        <v>6.146995058770605</v>
+        <v>6.146995058770604</v>
       </c>
       <c r="U5" t="n">
         <v>0.1123380022162531</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7513266268508021</v>
+        <v>0.751326626850802</v>
       </c>
       <c r="H6" t="n">
-        <v>7.256233475111696</v>
+        <v>7.256233475111694</v>
       </c>
       <c r="I6" t="n">
-        <v>25.8680439507842</v>
+        <v>25.86804395078419</v>
       </c>
       <c r="J6" t="n">
-        <v>70.98388977628566</v>
+        <v>70.98388977628565</v>
       </c>
       <c r="K6" t="n">
         <v>121.3227737752894</v>
@@ -31387,19 +31387,19 @@
         <v>143.4704328062729</v>
       </c>
       <c r="Q6" t="n">
-        <v>95.90618485906029</v>
+        <v>95.90618485906028</v>
       </c>
       <c r="R6" t="n">
-        <v>46.64815670921035</v>
+        <v>46.64815670921034</v>
       </c>
       <c r="S6" t="n">
-        <v>13.95556256453134</v>
+        <v>13.95556256453133</v>
       </c>
       <c r="T6" t="n">
         <v>3.028373552964416</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04942938334544753</v>
+        <v>0.04942938334544752</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,34 +31439,34 @@
         <v>0.629887005254555</v>
       </c>
       <c r="H7" t="n">
-        <v>5.60026810126323</v>
+        <v>5.600268101263229</v>
       </c>
       <c r="I7" t="n">
         <v>18.94242012165517</v>
       </c>
       <c r="J7" t="n">
-        <v>44.53301127149704</v>
+        <v>44.53301127149703</v>
       </c>
       <c r="K7" t="n">
-        <v>73.18141751957465</v>
+        <v>73.18141751957464</v>
       </c>
       <c r="L7" t="n">
-        <v>93.64701894484541</v>
+        <v>93.6470189448454</v>
       </c>
       <c r="M7" t="n">
-        <v>98.73765119640265</v>
+        <v>98.73765119640264</v>
       </c>
       <c r="N7" t="n">
-        <v>96.38989054045393</v>
+        <v>96.38989054045392</v>
       </c>
       <c r="O7" t="n">
-        <v>89.03166506998024</v>
+        <v>89.03166506998022</v>
       </c>
       <c r="P7" t="n">
-        <v>76.18197016278725</v>
+        <v>76.18197016278724</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.74444732181552</v>
+        <v>52.74444732181551</v>
       </c>
       <c r="R7" t="n">
         <v>28.32201025444571</v>
@@ -31475,7 +31475,7 @@
         <v>10.9772126279362</v>
       </c>
       <c r="T7" t="n">
-        <v>2.691335386087644</v>
+        <v>2.691335386087643</v>
       </c>
       <c r="U7" t="n">
         <v>0.03435747301388486</v>
@@ -32730,7 +32730,7 @@
         <v>270.397529979667</v>
       </c>
       <c r="Q23" t="n">
-        <v>203.0572840332874</v>
+        <v>203.0572840332873</v>
       </c>
       <c r="R23" t="n">
         <v>118.1169067903461</v>
@@ -32739,7 +32739,7 @@
         <v>42.8486102479058</v>
       </c>
       <c r="T23" t="n">
-        <v>8.231257986185739</v>
+        <v>8.23125798618574</v>
       </c>
       <c r="U23" t="n">
         <v>0.1504284726201847</v>
@@ -32821,7 +32821,7 @@
         <v>4.055204820349649</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06618941491321523</v>
+        <v>0.06618941491321521</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,7 +32861,7 @@
         <v>0.8434629266536492</v>
       </c>
       <c r="H25" t="n">
-        <v>7.499152202429723</v>
+        <v>7.499152202429724</v>
       </c>
       <c r="I25" t="n">
         <v>25.36523055791157</v>
@@ -32870,7 +32870,7 @@
         <v>59.632828914413</v>
       </c>
       <c r="K25" t="n">
-        <v>97.9950563875785</v>
+        <v>97.99505638757849</v>
       </c>
       <c r="L25" t="n">
         <v>125.3999336590344</v>
